--- a/biology/Zoologie/Chionaspis_etrusca/Chionaspis_etrusca.xlsx
+++ b/biology/Zoologie/Chionaspis_etrusca/Chionaspis_etrusca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chionaspis etrusca est une espèce d'Insectes hémiptères de la famille des Diaspididae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En anglais, l'espèce Chionaspis etrusca porte les noms vernaculaires suivants : « western scurfy scale », « tamarix scurfy scale », « tamarix scale » et « Sasscer scale »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En anglais, l'espèce Chionaspis etrusca porte les noms vernaculaires suivants : « western scurfy scale », « tamarix scurfy scale », « tamarix scale » et « Sasscer scale ».
 </t>
         </is>
       </c>
@@ -568,10 +584,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chionaspis etrusca est présent tout autour de la mer Méditerranée[2] et en Iran[3].
-Elle est une espèce invasive en Amérique lors de l'introduction de plantes Tamarix ramosissima[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chionaspis etrusca est présent tout autour de la mer Méditerranée et en Iran.
+Elle est une espèce invasive en Amérique lors de l'introduction de plantes Tamarix ramosissima.
 </t>
         </is>
       </c>
@@ -600,9 +618,11 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les larves et les adultes consomment les feuilles des plantes des espèces Tamarix africana, Tamarix aphylla, Tamarix canariensis, Tamarix gallica, Tamarix laxa (sv), Tamarix parviflora[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les larves et les adultes consomment les feuilles des plantes des espèces Tamarix africana, Tamarix aphylla, Tamarix canariensis, Tamarix gallica, Tamarix laxa (sv), Tamarix parviflora.
 </t>
         </is>
       </c>
@@ -631,10 +651,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Chionaspis etrusca Leonardi, 1908[6].
-Chionaspis etrusca a pour synonymes[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Chionaspis etrusca Leonardi, 1908.
+Chionaspis etrusca a pour synonymes :
 Chionaspis engeddensis Bodenheimer, 1924
 Chionaspis enggedensis Balachowsky, 1928
 Chionaspis etrusca subsp. engeddensis Bodenheimer, 1930
